--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>perros y gatos</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jorge el curioso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hermanos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +428,11 @@
         </is>
       </c>
       <c r="B1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre luces y sombras de la vida,
 el silencio es mi fiel compañía.
@@ -453,6 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
         </is>
       </c>
@@ -465,6 +475,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
         </is>
       </c>
@@ -476,6 +491,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
         </is>

--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Amor</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -429,11 +429,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Amor</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t xml:space="preserve">Entre luces y sombras de la vida,
 el silencio es mi fiel compañía.
 Sigo pasos que se pierden,
@@ -449,6 +444,11 @@
 </t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amor</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
         </is>
       </c>
     </row>

--- a/poemas.xlsx
+++ b/poemas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Comedia</t>
         </is>
       </c>
     </row>
@@ -496,6 +496,57 @@
         </is>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PEPE Y JUAN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Amor</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>maria y perro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hernezto y maria</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit, amet consectetur adipisicing elit. Amet, quibusdam voluptatum consectetur earum numquam aut deleniti mollitia eligendi quam fuga, magnam doloremque molestiae adipisci. Aliquid obcaecati molestias inventore ipsam hic.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>General</t>
         </is>
